--- a/Store_Sales/Marv_Sample_Store.xlsx
+++ b/Store_Sales/Marv_Sample_Store.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6deabfbbbf543249/Documents/Marv_Misc/Marv_Education/Portfolio_Opportunity/sample_store_01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="688" documentId="11_93D5D4842641FDA1F53CD7B8DC0AEB8C496B5B50" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0471FE4A-74CC-4123-B5CC-54DB8F75C3D9}"/>
+  <xr:revisionPtr revIDLastSave="708" documentId="11_93D5D4842641FDA1F53CD7B8DC0AEB8C496B5B50" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05B4ED60-CB2B-4F53-975C-0CC977E395C9}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="2880" windowWidth="29040" windowHeight="15720" tabRatio="922" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="86" r:id="rId10"/>
+    <pivotCache cacheId="9" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -680,11 +680,11 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -2679,7 +2679,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Salesperon 2014</a:t>
+              <a:t> Salesperon</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -3781,11 +3781,6 @@
               <a:rPr lang="en-US"/>
               <a:t>Top 5 Customers</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> 2014</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -6076,7 +6071,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Salesperon 2014</a:t>
+              <a:t> Salesperon</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -13091,8 +13086,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="8" name="Salesperson 1">
@@ -13115,7 +13110,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -13169,8 +13164,8 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="9" name="Region">
@@ -13193,7 +13188,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -13291,7 +13286,15 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1600" b="1"/>
-            <a:t>Sales Company</a:t>
+            <a:t>Store</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
+            <a:t>Sales</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -13556,7 +13559,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Marvin White" refreshedDate="45364.779046412033" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="369" xr:uid="{3BDA004A-8A2F-4B38-ADCB-8296F5B40013}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Marvin White" refreshedDate="45364.891904282405" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="369" xr:uid="{3BDA004A-8A2F-4B38-ADCB-8296F5B40013}">
   <cacheSource type="worksheet">
     <worksheetSource name="MarvTabledata1"/>
   </cacheSource>
@@ -24545,7 +24548,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F7657F95-18DD-48E0-9072-582A20768AF7}" name="PivotTable1" cacheId="86" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F7657F95-18DD-48E0-9072-582A20768AF7}" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A4:B20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="28">
     <pivotField showAll="0"/>
@@ -24890,7 +24893,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EA4884D0-2E8D-46F6-BCC6-16B1D474CD43}" name="PivotTable1" cacheId="86" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EA4884D0-2E8D-46F6-BCC6-16B1D474CD43}" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="A4:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="28">
     <pivotField showAll="0"/>
@@ -25249,7 +25252,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2E853939-1404-4224-BAB4-2D8937A1D0ED}" name="PivotTable1" cacheId="86" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2E853939-1404-4224-BAB4-2D8937A1D0ED}" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:C20" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="28">
     <pivotField showAll="0"/>
@@ -25601,7 +25604,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BC1E7ECA-E09B-49E7-A26E-5BEC89333463}" name="PivotTable2" cacheId="86" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="Salesperson">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BC1E7ECA-E09B-49E7-A26E-5BEC89333463}" name="PivotTable2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="Salesperson">
   <location ref="A4:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="28">
     <pivotField showAll="0"/>
@@ -25914,7 +25917,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AD3B085F-AF61-4732-82A3-1EED66B3D9E5}" name="PivotTable3" cacheId="86" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="Region">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AD3B085F-AF61-4732-82A3-1EED66B3D9E5}" name="PivotTable3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="Region">
   <location ref="A4:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="28">
     <pivotField showAll="0"/>
@@ -26215,7 +26218,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E1D24190-0EFD-4FD6-BB60-3C8C0BA6CF76}" name="PivotTable3" cacheId="86" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E1D24190-0EFD-4FD6-BB60-3C8C0BA6CF76}" name="PivotTable3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="A4:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="28">
     <pivotField showAll="0"/>
@@ -26531,7 +26534,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4530103E-1865-4084-9586-03368612CD18}" name="PivotTable3" cacheId="86" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4530103E-1865-4084-9586-03368612CD18}" name="PivotTable3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
   <location ref="A4:B18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="28">
     <pivotField showAll="0"/>
@@ -27228,15 +27231,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986AB190-2B9E-4C1D-AD78-769F334B3706}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="U34" sqref="U34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="8.7265625" style="13"/>
-    <col min="5" max="5" width="8.7265625" style="13" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="13"/>
+    <col min="1" max="4" width="8.7265625" style="12"/>
+    <col min="5" max="5" width="8.7265625" style="12" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="12"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27745,7 +27748,7 @@
   <dimension ref="A2:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27966,7 +27969,7 @@
       <c r="A5" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="13">
         <v>218</v>
       </c>
     </row>
@@ -27974,7 +27977,7 @@
       <c r="A6" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="13">
         <v>85</v>
       </c>
     </row>
@@ -27982,7 +27985,7 @@
       <c r="A7" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="13">
         <v>31</v>
       </c>
     </row>
@@ -27990,7 +27993,7 @@
       <c r="A8" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="13">
         <v>24</v>
       </c>
     </row>
@@ -27998,7 +28001,7 @@
       <c r="A9" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="13">
         <v>8</v>
       </c>
     </row>
@@ -28006,7 +28009,7 @@
       <c r="A10" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="13">
         <v>2</v>
       </c>
     </row>
@@ -28014,7 +28017,7 @@
       <c r="A11" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="13">
         <v>1</v>
       </c>
     </row>
@@ -28022,7 +28025,7 @@
       <c r="A12" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="13">
         <v>369</v>
       </c>
     </row>
@@ -28079,7 +28082,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>157</v>
       </c>
       <c r="B6" s="7">
@@ -28087,7 +28090,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>158</v>
       </c>
       <c r="B7" s="7">
@@ -28095,7 +28098,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>159</v>
       </c>
       <c r="B8" s="7">
@@ -28103,7 +28106,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>160</v>
       </c>
       <c r="B9" s="7">
@@ -28111,7 +28114,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>161</v>
       </c>
       <c r="B10" s="7">
@@ -28119,7 +28122,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>162</v>
       </c>
       <c r="B11" s="7">
@@ -28127,7 +28130,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>163</v>
       </c>
       <c r="B12" s="7">
@@ -28135,7 +28138,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>164</v>
       </c>
       <c r="B13" s="7">
@@ -28143,7 +28146,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>165</v>
       </c>
       <c r="B14" s="7">
@@ -28151,7 +28154,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>166</v>
       </c>
       <c r="B15" s="7">
@@ -28159,7 +28162,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>167</v>
       </c>
       <c r="B16" s="7">
@@ -28167,7 +28170,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="11" t="s">
         <v>168</v>
       </c>
       <c r="B17" s="7">
